--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1923960.657971615</v>
+        <v>-1929822.978006794</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14218434.35891068</v>
+        <v>14217254.40012984</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -713,19 +713,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>17.6792487849753</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>118.1619684650109</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104615414</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722575</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.48931700299358</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>116.876383545772</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>329.898504808155</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>64.54389766323233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104615414</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722575</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>112.8177816540416</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>363.4811526716766</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>104.8804087260146</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>129.6022067968811</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>19.85905444009093</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>158.6889665171556</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>101.3491947115652</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>121.6865750829772</v>
       </c>
       <c r="U13" t="n">
-        <v>169.0382742662496</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>55.91274530763808</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>54.9293932485083</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.529979330314466</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,7 +1819,7 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1828,10 +1828,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>14.79823267080815</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954283</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838912</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828925</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696767</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431757</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459998</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.7403246664397</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931882</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908608</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147822</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805026</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922219</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367811</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920543</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404474</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480635</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714524</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-5.821044333585335e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>931.9326166774147</v>
+        <v>929.940204038998</v>
       </c>
       <c r="C2" t="n">
-        <v>931.9326166774147</v>
+        <v>929.940204038998</v>
       </c>
       <c r="D2" t="n">
-        <v>931.9326166774147</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E2" t="n">
-        <v>931.9326166774147</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477965</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035832</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>259.7298875736958</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>773.3325661833842</v>
       </c>
       <c r="N2" t="n">
-        <v>1641.749917465282</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465282</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596803</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023274</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964324</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523741</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U2" t="n">
-        <v>1746.775898523741</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="V2" t="n">
-        <v>1728.91807146821</v>
+        <v>1049.295727741029</v>
       </c>
       <c r="W2" t="n">
-        <v>1728.91807146821</v>
+        <v>929.940204038998</v>
       </c>
       <c r="X2" t="n">
-        <v>1728.91807146821</v>
+        <v>929.940204038998</v>
       </c>
       <c r="Y2" t="n">
-        <v>1332.427362388812</v>
+        <v>929.940204038998</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.813417902147</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622392</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837195</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946072</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>114.191923077739</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>114.191923077739</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475504</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144824</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>694.8694266245759</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875483</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466464</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182861</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635816</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535685</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734594</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413235</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784302</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917589</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>986.923969267601</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431083</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1273.335947196199</v>
+        <v>197.062058897136</v>
       </c>
       <c r="C4" t="n">
-        <v>1273.335947196199</v>
+        <v>197.062058897136</v>
       </c>
       <c r="D4" t="n">
-        <v>1273.335947196199</v>
+        <v>197.062058897136</v>
       </c>
       <c r="E4" t="n">
-        <v>1273.335947196199</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="F4" t="n">
-        <v>1273.335947196199</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.335947196199</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196199</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196199</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196199</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306141</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179941</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518205</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549414</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591122</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367701</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737752</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737752</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>2174.782969737752</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>2174.782969737752</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>2056.726016661215</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>1790.746671482039</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="W4" t="n">
-        <v>1507.416269413216</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="X4" t="n">
-        <v>1273.335947196199</v>
+        <v>442.8906019016982</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.335947196199</v>
+        <v>219.7785407183416</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1709.092367800868</v>
+        <v>1313.924453665382</v>
       </c>
       <c r="C5" t="n">
-        <v>1315.916866303798</v>
+        <v>1313.924453665382</v>
       </c>
       <c r="D5" t="n">
-        <v>930.4757375204661</v>
+        <v>928.4833248820494</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8922126370105</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073923</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357996</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035832</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>1552.058346020846</v>
       </c>
       <c r="N5" t="n">
-        <v>2106.518148697129</v>
+        <v>2065.661024630534</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737752</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737752</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737752</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737752</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737752</v>
+        <v>1313.924453665382</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.782969737752</v>
+        <v>1313.924453665382</v>
       </c>
       <c r="X5" t="n">
-        <v>2174.782969737752</v>
+        <v>1313.924453665382</v>
       </c>
       <c r="Y5" t="n">
-        <v>2109.587113512265</v>
+        <v>1313.924453665382</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.813417902147</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622392</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837195</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946072</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>114.191923077739</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475504</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475504</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.276226875483</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875483</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466464</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182861</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635816</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535685</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734594</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413235</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784302</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917589</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.923969267601</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431083</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.9426819363074</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="C7" t="n">
-        <v>944.9426819363074</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="D7" t="n">
-        <v>843.5857067984603</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="E7" t="n">
-        <v>688.0268946576628</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="F7" t="n">
-        <v>530.7009598706358</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="G7" t="n">
-        <v>362.4469059700813</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315752</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>73.8739295686531</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.9426819363074</v>
+        <v>545.662512022966</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1261.354413709946</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="C8" t="n">
-        <v>1261.354413709946</v>
+        <v>831.3600880379058</v>
       </c>
       <c r="D8" t="n">
-        <v>875.9132849266141</v>
+        <v>831.3600880379058</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431586</v>
+        <v>831.3600880379058</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>414.4656495678836</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1427.426901484996</v>
       </c>
       <c r="O8" t="n">
-        <v>2054.485046394444</v>
+        <v>1867.466502377325</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2215.653994508847</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2259.708698283226</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.955968717825</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>1661.849159421343</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W8" t="n">
-        <v>1661.849159421343</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X8" t="n">
-        <v>1661.849159421343</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.849159421343</v>
+        <v>1224.535589534975</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>480.1670983834975</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1065.6651033901</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.4295905742738</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="C10" t="n">
-        <v>665.4295905742738</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="D10" t="n">
-        <v>665.4295905742738</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="E10" t="n">
-        <v>665.4295905742738</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="G10" t="n">
         <v>366.2642166768698</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="W10" t="n">
-        <v>665.4295905742738</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="X10" t="n">
-        <v>665.4295905742738</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.4295905742738</v>
+        <v>366.2642166768698</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1357.337305106589</v>
+        <v>1714.395101119023</v>
       </c>
       <c r="C11" t="n">
-        <v>1035.958078755714</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D11" t="n">
-        <v>722.3132251185754</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E11" t="n">
-        <v>722.3132251185754</v>
+        <v>748.5837713937468</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2666.990765502949</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2367.788005617431</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2367.788005617431</v>
       </c>
       <c r="Y11" t="n">
-        <v>1686.035775671792</v>
+        <v>2043.093571684226</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.1567075134114</v>
+        <v>571.332672947458</v>
       </c>
       <c r="C13" t="n">
-        <v>471.1567075134114</v>
+        <v>472.9238301596411</v>
       </c>
       <c r="D13" t="n">
-        <v>387.3198695621201</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5573325675165</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F13" t="n">
         <v>303.5573325675165</v>
@@ -5191,7 +5191,7 @@
         <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,19 +5200,19 @@
         <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5224,25 +5224,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1190.692386514974</v>
       </c>
       <c r="U13" t="n">
-        <v>978.9396106543792</v>
+        <v>977.0498699030683</v>
       </c>
       <c r="V13" t="n">
-        <v>784.7565406213972</v>
+        <v>782.8667998700865</v>
       </c>
       <c r="W13" t="n">
-        <v>784.7565406213972</v>
+        <v>571.332672947458</v>
       </c>
       <c r="X13" t="n">
-        <v>622.4724935505742</v>
+        <v>571.332672947458</v>
       </c>
       <c r="Y13" t="n">
-        <v>471.1567075134114</v>
+        <v>571.332672947458</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1758.912988943184</v>
+        <v>1714.395101119023</v>
       </c>
       <c r="C14" t="n">
-        <v>1437.533762592308</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1123.88890895517</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>748.5837713937472</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2955.754869688468</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X14" t="n">
-        <v>2087.611459508387</v>
+        <v>2367.788005617431</v>
       </c>
       <c r="Y14" t="n">
-        <v>2087.611459508387</v>
+        <v>2043.093571684226</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.7257955609483</v>
+        <v>401.9661753553336</v>
       </c>
       <c r="C16" t="n">
-        <v>216.7257955609483</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="D16" t="n">
-        <v>216.7257955609483</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="E16" t="n">
-        <v>216.7257955609483</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="F16" t="n">
-        <v>216.7257955609483</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5434,19 +5434,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245445</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915626</v>
+        <v>741.8597555915621</v>
       </c>
       <c r="W16" t="n">
         <v>530.3256286689341</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0415815981111</v>
+        <v>530.3256286689341</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.7257955609483</v>
+        <v>515.377918900441</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099307</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102856</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M19" t="n">
-        <v>629.009399256734</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
@@ -5744,25 +5744,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,10 +5771,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
@@ -5838,7 +5838,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446702</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.009399256734</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879432</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5990,16 +5990,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6154,43 +6154,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,16 +6230,16 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6248,25 +6248,25 @@
         <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6300,19 +6300,19 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755027</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755027</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755027</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>701.1365085742315</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225742</v>
@@ -6403,31 +6403,31 @@
         <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286451</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6467,19 +6467,19 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1504.441740534771</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1532.448062118649</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985345</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517122</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878062</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879675</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286446</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463679</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.89878230571</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230776</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407617</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>651.48426513348</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741593</v>
+        <v>1144.804556852009</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786174</v>
+        <v>1690.805456896589</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150706</v>
+        <v>2218.616740534052</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043034</v>
+        <v>2658.65634142638</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174556</v>
+        <v>3006.843833557902</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042575</v>
+        <v>3303.341514273833</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038085</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.2744199085</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397281</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761244</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394127</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291779</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.5154531542</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004165</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282492</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407617</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965145</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991868</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237471</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.058261612314</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546513</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834612</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431948</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407617</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074061</v>
+        <v>342.9206752648151</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812059</v>
+        <v>618.7004357135977</v>
       </c>
       <c r="M34" t="n">
-        <v>787.84734314654</v>
+        <v>910.7916726541107</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.310069904819</v>
+        <v>1093.98130668532</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673597</v>
+        <v>1256.686073727028</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450176</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746647</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308588</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420502</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689366</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395544</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000963</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124437</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584514</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498593</v>
@@ -6929,7 +6929,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6956,10 +6956,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7105,40 +7105,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,49 +7333,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099307</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7439,10 +7439,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,49 +7570,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7804,10 +7804,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K46" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L46" t="n">
         <v>442.7178209184696</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>373.6791200510547</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321653</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>212.7983422525461</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,19 +8058,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837499</v>
+        <v>574.4602701392405</v>
       </c>
       <c r="N3" t="n">
-        <v>412.0456484611434</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8222,13 +8222,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321653</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O5" t="n">
-        <v>218.5182021115942</v>
+        <v>159.1611234709538</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>541.7935023090943</v>
       </c>
       <c r="M6" t="n">
-        <v>151.3369738679592</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,13 +8453,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>464.6079711628815</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>296.0083050530727</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>230.2980308590267</v>
+        <v>92.83741255226374</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,19 +8766,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>345.5977578821532</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9243,13 +9243,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>624.8237719316268</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>624.8237719316264</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>335.1420048916683</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>314.1682372053019</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>333.2595653118434</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>624.8237719316268</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>108.9184622916293</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>220.0982948823078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>40.59697383573908</v>
       </c>
       <c r="U13" t="n">
-        <v>42.4678171795365</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>271.5666319322509</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>127.1874966265072</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>85.96322163650251</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>135.004395505983</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1247998.214164682</v>
+        <v>1247396.666550922</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1247998.214164682</v>
+        <v>1247396.666550922</v>
       </c>
     </row>
     <row r="4">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867138</v>
       </c>
       <c r="C2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867137</v>
       </c>
       <c r="D2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867135</v>
       </c>
       <c r="E2" t="n">
         <v>31871.80468488012</v>
       </c>
       <c r="F2" t="n">
-        <v>31871.80468488012</v>
+        <v>31871.80468488013</v>
       </c>
       <c r="G2" t="n">
         <v>36066.43561867135</v>
@@ -26335,13 +26335,13 @@
         <v>36066.43561867136</v>
       </c>
       <c r="J2" t="n">
-        <v>36066.43561867128</v>
+        <v>36066.43561867129</v>
       </c>
       <c r="K2" t="n">
-        <v>36066.43561867128</v>
+        <v>36066.43561867129</v>
       </c>
       <c r="L2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.4356186714</v>
       </c>
       <c r="M2" t="n">
         <v>36066.43561867136</v>
@@ -26350,7 +26350,7 @@
         <v>36066.43561867136</v>
       </c>
       <c r="O2" t="n">
-        <v>36066.43561867135</v>
+        <v>36066.43561867136</v>
       </c>
       <c r="P2" t="n">
         <v>36066.43561867136</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918562</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062165</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,34 +26378,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945028</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728533</v>
+        <v>62456.24177539673</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962292</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427712</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541665</v>
+        <v>195056.1330166295</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541665</v>
+        <v>195056.1330166295</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805102</v>
+        <v>99893.08150805101</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805102</v>
+        <v>99893.08150805101</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
@@ -26436,19 +26436,19 @@
         <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544783</v>
       </c>
       <c r="M4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="N4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,22 +26485,22 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-401768.3201673651</v>
+        <v>-398018.4219668305</v>
       </c>
       <c r="C6" t="n">
-        <v>-219563.371875509</v>
+        <v>-224159.7649327753</v>
       </c>
       <c r="D6" t="n">
-        <v>-225579.1735332822</v>
+        <v>-233315.462756674</v>
       </c>
       <c r="E6" t="n">
-        <v>-233329.857997056</v>
+        <v>-233539.5895437455</v>
       </c>
       <c r="F6" t="n">
-        <v>-121207.2965230114</v>
+        <v>-121417.028069701</v>
       </c>
       <c r="G6" t="n">
-        <v>-217180.6572331634</v>
+        <v>-217180.6572331635</v>
       </c>
       <c r="H6" t="n">
         <v>-169755.3316964815</v>
@@ -26543,16 +26543,16 @@
         <v>-169755.3316964815</v>
       </c>
       <c r="J6" t="n">
-        <v>-382797.2492937674</v>
+        <v>-376280.9641391939</v>
       </c>
       <c r="K6" t="n">
-        <v>-175995.1000992646</v>
+        <v>-175995.1000992645</v>
       </c>
       <c r="L6" t="n">
-        <v>-231177.6890338855</v>
+        <v>-235226.5262443578</v>
       </c>
       <c r="M6" t="n">
-        <v>-211956.1611561045</v>
+        <v>-213007.8561672926</v>
       </c>
       <c r="N6" t="n">
         <v>-169755.3316964815</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,22 +26805,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095212</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660666</v>
+        <v>78.07030221924592</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551369</v>
+        <v>17.58004954287445</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485708</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773723</v>
+        <v>659.3622249971648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407174</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485708</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27388,11 +27388,11 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>321.0064924185415</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>249.1270762163846</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925094</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758549</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>160.8666215013947</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27543,7 +27543,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27591,19 +27591,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>165.708020294746</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>8.787236395361788</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>327.9819043253726</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270006</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758549</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>108.0631589174815</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>45.54997528520028</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>116.3851876901629</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28020,10 +28020,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>26.15046864227571</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>262.7253494004271</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28749,10 +28749,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>5.636002634529092</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5.636002634529632</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28980,25 +28980,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>35.71049010668865</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29062,7 +29062,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29226,16 +29226,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5.63600263452949</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5.636002634529063</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901323</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431681</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>81.10808140893425</v>
       </c>
       <c r="L32" t="n">
-        <v>86.2729119656691</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000707</v>
+        <v>106.8683420224737</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861254579</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>37.61298457733328</v>
@@ -30177,16 +30177,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.636002634529465</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733418</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>130.3599693155844</v>
@@ -30405,19 +30405,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O43" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30876,13 +30876,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668825</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L46" t="n">
-        <v>5.63600263452912</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>220.430950320563</v>
       </c>
       <c r="M2" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N2" t="n">
-        <v>63.67985091476201</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.695742434438</v>
+        <v>482.0731480899286</v>
       </c>
       <c r="N3" t="n">
-        <v>326.6735356069767</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34942,13 +34942,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O5" t="n">
-        <v>68.95436468749777</v>
+        <v>9.597286046857445</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>451.733155452176</v>
       </c>
       <c r="M6" t="n">
-        <v>58.94985181864729</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>314.3065239219563</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>151.5096066346805</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>144.9259180048601</v>
+        <v>7.465299698097082</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>260.2256450279866</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,10 +36045,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873216</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>118.3721477934986</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,10 +36291,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36358,7 +36358,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L23" t="n">
         <v>498.303324968211</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>539.4516590774601</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36522,16 +36522,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716083</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724872</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36598,25 +36598,25 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>563.4149484039237</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656009</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>539.4516590774598</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611263</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446929</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039237</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>249.7698920375016</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>221.480678316413</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>443.7165218407139</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338801</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111298</v>
+        <v>299.492606783769</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273741</v>
+        <v>75.16693519537662</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791163</v>
+        <v>82.70543230055083</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868807</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>295.0416534752657</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750295</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371495</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.17123262269827</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37473,16 +37473,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681948</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,19 +37701,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873211</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716083</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>539.4516590774601</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37950,7 +37950,7 @@
         <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
-        <v>169.9842521716083</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565491</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
